--- a/TestData/metutor.xlsx
+++ b/TestData/metutor.xlsx
@@ -20,24 +20,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
-  <si>
-    <t xml:space="preserve">Username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing460391</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing46012@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metutors@123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing460310@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Qw@12345678</t>
   </si>
   <si>
-    <t xml:space="preserve">testing460310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing460311</t>
+    <t xml:space="preserve">fail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing460311@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -47,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -69,6 +81,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,8 +132,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -135,15 +158,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32"/>
   </cols>
   <sheetData>
@@ -154,36 +177,51 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="Qw@12345678"/>
-    <hyperlink ref="B3" r:id="rId2" display="Qw@12345678"/>
-    <hyperlink ref="B4" r:id="rId3" display="Qw@12345678"/>
+    <hyperlink ref="A2" r:id="rId1" display="testing46012@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId2" display="Metutors@123"/>
+    <hyperlink ref="A3" r:id="rId3" display="testing460310@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId4" display="Qw@12345678"/>
+    <hyperlink ref="A4" r:id="rId5" display="testing460311@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId6" display="Qw@12345678"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
